--- a/exports/yield_files/LU 6 Late-21.xlsx
+++ b/exports/yield_files/LU 6 Late-21.xlsx
@@ -663,9 +663,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40.97</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>65.09</v>
+      </c>
       <c r="R2" t="n">
         <v>2659.6</v>
       </c>
@@ -718,9 +724,15 @@
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65.03</v>
+      </c>
       <c r="R3" t="n">
         <v>2479.8</v>
       </c>
@@ -769,9 +781,15 @@
         <v>40</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>65.4</v>
+      </c>
       <c r="R4" t="n">
         <v>2985.2</v>
       </c>
@@ -869,9 +887,15 @@
       <c r="N6" t="n">
         <v>2.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>64.52</v>
+      </c>
       <c r="R6" t="n">
         <v>2815.7</v>
       </c>
@@ -924,9 +948,15 @@
       <c r="N7" t="n">
         <v>2.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>64.57</v>
+      </c>
       <c r="R7" t="n">
         <v>2869.6</v>
       </c>
@@ -975,9 +1005,15 @@
         <v>48</v>
       </c>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>42.64</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>65.08</v>
+      </c>
       <c r="R8" t="n">
         <v>2456.1</v>
       </c>
@@ -1075,9 +1111,15 @@
       <c r="N10" t="n">
         <v>2</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>64.96</v>
+      </c>
       <c r="R10" t="n">
         <v>2554.2</v>
       </c>
@@ -1130,9 +1172,15 @@
       <c r="N11" t="n">
         <v>1.5</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>64.76</v>
+      </c>
       <c r="R11" t="n">
         <v>2679.5</v>
       </c>
@@ -1181,9 +1229,15 @@
         <v>46</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="P12" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>65.94</v>
+      </c>
       <c r="R12" t="n">
         <v>2702.4</v>
       </c>
@@ -1281,9 +1335,15 @@
       <c r="N14" t="n">
         <v>1.5</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>65.67</v>
+      </c>
       <c r="R14" t="n">
         <v>2823.7</v>
       </c>
@@ -1336,9 +1396,15 @@
       <c r="N15" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>65.66</v>
+      </c>
       <c r="R15" t="n">
         <v>2940.1</v>
       </c>
@@ -1387,9 +1453,15 @@
         <v>44</v>
       </c>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>66.55</v>
+      </c>
       <c r="R16" t="n">
         <v>2671.7</v>
       </c>
@@ -1487,9 +1559,15 @@
       <c r="N18" t="n">
         <v>2</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>41.53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>64.81</v>
+      </c>
       <c r="R18" t="n">
         <v>1865.8</v>
       </c>
@@ -1542,9 +1620,15 @@
       <c r="N19" t="n">
         <v>1.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>64.55</v>
+      </c>
       <c r="R19" t="n">
         <v>2474.6</v>
       </c>
@@ -1593,9 +1677,15 @@
         <v>46</v>
       </c>
       <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>42.84</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>65.41</v>
+      </c>
       <c r="R20" t="n">
         <v>2703</v>
       </c>
@@ -1693,9 +1783,15 @@
       <c r="N22" t="n">
         <v>2</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>65.13</v>
+      </c>
       <c r="R22" t="n">
         <v>2956.5</v>
       </c>
@@ -1748,9 +1844,15 @@
       <c r="N23" t="n">
         <v>2.5</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="P23" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>64.06</v>
+      </c>
       <c r="R23" t="n">
         <v>2856</v>
       </c>
@@ -1799,9 +1901,15 @@
         <v>38</v>
       </c>
       <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="P24" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>65.21</v>
+      </c>
       <c r="R24" t="n">
         <v>2846.3</v>
       </c>
@@ -1899,9 +2007,15 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="P26" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>63.52</v>
+      </c>
       <c r="R26" t="n">
         <v>3270</v>
       </c>
@@ -1954,9 +2068,15 @@
       <c r="N27" t="n">
         <v>1.5</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="P27" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>65.27</v>
+      </c>
       <c r="R27" t="n">
         <v>2871.7</v>
       </c>
@@ -2005,9 +2125,15 @@
         <v>40</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>64.86</v>
+      </c>
       <c r="R28" t="n">
         <v>2705.7</v>
       </c>
@@ -2105,9 +2231,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="P30" t="n">
+        <v>42.47</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>64.16</v>
+      </c>
       <c r="R30" t="n">
         <v>3268.8</v>
       </c>
@@ -2160,9 +2292,15 @@
       <c r="N31" t="n">
         <v>2.5</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="P31" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>63.9</v>
+      </c>
       <c r="R31" t="n">
         <v>2943.3</v>
       </c>
@@ -2211,9 +2349,15 @@
         <v>42</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="O32" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>64.13</v>
+      </c>
       <c r="R32" t="n">
         <v>3074.1</v>
       </c>
@@ -2311,9 +2455,15 @@
       <c r="N34" t="n">
         <v>1.5</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="P34" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>64.23</v>
+      </c>
       <c r="R34" t="n">
         <v>2724.8</v>
       </c>
@@ -2366,9 +2516,15 @@
       <c r="N35" t="n">
         <v>1.5</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="P35" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>64.81</v>
+      </c>
       <c r="R35" t="n">
         <v>2483.5</v>
       </c>
@@ -2417,9 +2573,15 @@
         <v>41</v>
       </c>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
+      <c r="O36" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>64.96</v>
+      </c>
       <c r="R36" t="n">
         <v>2328.1</v>
       </c>
@@ -2517,9 +2679,15 @@
       <c r="N38" t="n">
         <v>1</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>63.82</v>
+      </c>
       <c r="R38" t="n">
         <v>2771.9</v>
       </c>
@@ -2572,9 +2740,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="P39" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>63.83</v>
+      </c>
       <c r="R39" t="n">
         <v>2638.5</v>
       </c>
@@ -2623,9 +2797,15 @@
         <v>36</v>
       </c>
       <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
+      <c r="O40" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="P40" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>63.92</v>
+      </c>
       <c r="R40" t="n">
         <v>2520.9</v>
       </c>
@@ -2723,9 +2903,15 @@
       <c r="N42" t="n">
         <v>1.5</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="P42" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>63.56</v>
+      </c>
       <c r="R42" t="n">
         <v>2767</v>
       </c>
@@ -2778,9 +2964,15 @@
       <c r="N43" t="n">
         <v>1.5</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="P43" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>63.34</v>
+      </c>
       <c r="R43" t="n">
         <v>2692.6</v>
       </c>
@@ -2829,9 +3021,15 @@
         <v>40</v>
       </c>
       <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
+      <c r="O44" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="P44" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>63.73</v>
+      </c>
       <c r="R44" t="n">
         <v>2749</v>
       </c>
@@ -2929,9 +3127,15 @@
       <c r="N46" t="n">
         <v>1.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>64.54</v>
+      </c>
       <c r="R46" t="n">
         <v>2645.5</v>
       </c>
@@ -2984,9 +3188,15 @@
       <c r="N47" t="n">
         <v>2</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>63.73</v>
+      </c>
       <c r="R47" t="n">
         <v>2659.7</v>
       </c>
@@ -3035,9 +3245,15 @@
         <v>40</v>
       </c>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
+      <c r="O48" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P48" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>64.27</v>
+      </c>
       <c r="R48" t="n">
         <v>2663.2</v>
       </c>
@@ -3135,9 +3351,15 @@
       <c r="N50" t="n">
         <v>1.5</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="P50" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>63.45</v>
+      </c>
       <c r="R50" t="n">
         <v>2319.4</v>
       </c>
@@ -3190,9 +3412,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="P51" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>63.76</v>
+      </c>
       <c r="R51" t="n">
         <v>2538.1</v>
       </c>
@@ -3241,9 +3469,15 @@
         <v>38</v>
       </c>
       <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
+      <c r="O52" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>64.24</v>
+      </c>
       <c r="R52" t="n">
         <v>2812.3</v>
       </c>
@@ -3341,9 +3575,15 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P54" t="n">
+        <v>43.11</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>65.86</v>
+      </c>
       <c r="R54" t="n">
         <v>2698.1</v>
       </c>
@@ -3396,9 +3636,15 @@
       <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>65.49</v>
+      </c>
       <c r="R55" t="n">
         <v>2406.3</v>
       </c>
@@ -3447,9 +3693,15 @@
         <v>40</v>
       </c>
       <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
+      <c r="O56" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>65.88</v>
+      </c>
       <c r="R56" t="n">
         <v>2548.6</v>
       </c>
@@ -3547,9 +3799,15 @@
       <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="P58" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>65.78</v>
+      </c>
       <c r="R58" t="n">
         <v>2885.4</v>
       </c>
@@ -3602,9 +3860,15 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>65.91</v>
+      </c>
       <c r="R59" t="n">
         <v>2668.8</v>
       </c>
@@ -3653,9 +3917,15 @@
         <v>36</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
+      <c r="O60" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="P60" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>66.71</v>
+      </c>
       <c r="R60" t="n">
         <v>2711.8</v>
       </c>
@@ -3753,9 +4023,15 @@
       <c r="N62" t="n">
         <v>1.5</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="P62" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>66.09</v>
+      </c>
       <c r="R62" t="n">
         <v>2678.2</v>
       </c>
@@ -3808,9 +4084,15 @@
       <c r="N63" t="n">
         <v>2</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="P63" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>65.14</v>
+      </c>
       <c r="R63" t="n">
         <v>2603.9</v>
       </c>
@@ -3859,9 +4141,15 @@
         <v>36</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
+      <c r="O64" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="P64" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>65.93</v>
+      </c>
       <c r="R64" t="n">
         <v>2609.6</v>
       </c>
@@ -3959,9 +4247,15 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="P66" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>64.16</v>
+      </c>
       <c r="R66" t="n">
         <v>2741</v>
       </c>
@@ -4014,9 +4308,15 @@
       <c r="N67" t="n">
         <v>1.5</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="P67" t="n">
+        <v>43.31</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>65</v>
+      </c>
       <c r="R67" t="n">
         <v>3052.2</v>
       </c>
@@ -4065,9 +4365,15 @@
         <v>40</v>
       </c>
       <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
+      <c r="O68" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="P68" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>66.08</v>
+      </c>
       <c r="R68" t="n">
         <v>2865.1</v>
       </c>
@@ -4165,9 +4471,15 @@
       <c r="N70" t="n">
         <v>1</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="P70" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>64.92</v>
+      </c>
       <c r="R70" t="n">
         <v>3095.8</v>
       </c>
@@ -4220,9 +4532,15 @@
       <c r="N71" t="n">
         <v>1.5</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="P71" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>65.14</v>
+      </c>
       <c r="R71" t="n">
         <v>2757.6</v>
       </c>
@@ -4271,9 +4589,15 @@
         <v>38</v>
       </c>
       <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
+      <c r="O72" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="P72" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>65.43</v>
+      </c>
       <c r="R72" t="n">
         <v>2953</v>
       </c>
@@ -4371,9 +4695,15 @@
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="P74" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>64.78</v>
+      </c>
       <c r="R74" t="n">
         <v>2565.1</v>
       </c>
@@ -4426,9 +4756,15 @@
       <c r="N75" t="n">
         <v>2</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P75" t="n">
+        <v>42.23</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>64.8</v>
+      </c>
       <c r="R75" t="n">
         <v>2919.1</v>
       </c>
@@ -4477,9 +4813,15 @@
         <v>40</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
+      <c r="O76" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="P76" t="n">
+        <v>45.17</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>66.53</v>
+      </c>
       <c r="R76" t="n">
         <v>2652.1</v>
       </c>
@@ -4577,9 +4919,15 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P78" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>64.1</v>
+      </c>
       <c r="R78" t="n">
         <v>3011</v>
       </c>
@@ -4632,9 +4980,15 @@
       <c r="N79" t="n">
         <v>1.5</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="P79" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>64.11</v>
+      </c>
       <c r="R79" t="n">
         <v>3195.1</v>
       </c>
@@ -4683,9 +5037,15 @@
         <v>38</v>
       </c>
       <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
+      <c r="O80" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>65.11</v>
+      </c>
       <c r="R80" t="n">
         <v>2886.8</v>
       </c>
@@ -4783,9 +5143,15 @@
       <c r="N82" t="n">
         <v>1.5</v>
       </c>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="O82" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="P82" t="n">
+        <v>45.89</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>68.54</v>
+      </c>
       <c r="R82" t="n">
         <v>2785.1</v>
       </c>
@@ -4838,9 +5204,15 @@
       <c r="N83" t="n">
         <v>1.5</v>
       </c>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
+      <c r="O83" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="P83" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>68.76</v>
+      </c>
       <c r="R83" t="n">
         <v>2521.5</v>
       </c>
@@ -4889,9 +5261,15 @@
         <v>33</v>
       </c>
       <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
+      <c r="O84" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P84" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>69.53</v>
+      </c>
       <c r="R84" t="n">
         <v>2396.2</v>
       </c>
@@ -4989,9 +5367,15 @@
       <c r="N86" t="n">
         <v>1.5</v>
       </c>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="O86" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="P86" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>64.13</v>
+      </c>
       <c r="R86" t="n">
         <v>2706.6</v>
       </c>
@@ -5044,9 +5428,15 @@
       <c r="N87" t="n">
         <v>1.5</v>
       </c>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+      <c r="O87" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="P87" t="n">
+        <v>42.01</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>64.45</v>
+      </c>
       <c r="R87" t="n">
         <v>2832.7</v>
       </c>
@@ -5095,9 +5485,15 @@
         <v>38</v>
       </c>
       <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
+      <c r="O88" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P88" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>66.2</v>
+      </c>
       <c r="R88" t="n">
         <v>2785.7</v>
       </c>
@@ -5195,9 +5591,15 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="O90" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="P90" t="n">
+        <v>44.03</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>66.19</v>
+      </c>
       <c r="R90" t="n">
         <v>2832.5</v>
       </c>
@@ -5250,9 +5652,15 @@
       <c r="N91" t="n">
         <v>1.5</v>
       </c>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="O91" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="P91" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>66.3</v>
+      </c>
       <c r="R91" t="n">
         <v>2736.3</v>
       </c>
@@ -5301,9 +5709,15 @@
         <v>39</v>
       </c>
       <c r="N92"/>
-      <c r="O92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
+      <c r="O92" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="P92" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>66.11</v>
+      </c>
       <c r="R92" t="n">
         <v>2978.9</v>
       </c>
@@ -5401,9 +5815,15 @@
       <c r="N94" t="n">
         <v>2</v>
       </c>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="O94" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="P94" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>62.74</v>
+      </c>
       <c r="R94" t="n">
         <v>2900.5</v>
       </c>
@@ -5456,9 +5876,15 @@
       <c r="N95" t="n">
         <v>2</v>
       </c>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="O95" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P95" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>63.26</v>
+      </c>
       <c r="R95" t="n">
         <v>2513.1</v>
       </c>
@@ -5507,9 +5933,15 @@
         <v>42</v>
       </c>
       <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96"/>
-      <c r="Q96"/>
+      <c r="O96" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="P96" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>62.47</v>
+      </c>
       <c r="R96" t="n">
         <v>2671.5</v>
       </c>
@@ -5607,9 +6039,15 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="O98" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="P98" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>65.36</v>
+      </c>
       <c r="R98" t="n">
         <v>2726.4</v>
       </c>
@@ -5662,9 +6100,15 @@
       <c r="N99" t="n">
         <v>1.5</v>
       </c>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
+      <c r="O99" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="P99" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>65.46</v>
+      </c>
       <c r="R99" t="n">
         <v>2910</v>
       </c>
@@ -5713,9 +6157,15 @@
         <v>38</v>
       </c>
       <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
+      <c r="O100" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="P100" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>66.59</v>
+      </c>
       <c r="R100" t="n">
         <v>2233.1</v>
       </c>
@@ -5813,9 +6263,15 @@
       <c r="N102" t="n">
         <v>2.5</v>
       </c>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="O102" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="P102" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>63.8</v>
+      </c>
       <c r="R102" t="n">
         <v>2647.9</v>
       </c>
@@ -5868,9 +6324,15 @@
       <c r="N103" t="n">
         <v>2.5</v>
       </c>
-      <c r="O103"/>
-      <c r="P103"/>
-      <c r="Q103"/>
+      <c r="O103" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="P103" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>63.42</v>
+      </c>
       <c r="R103" t="n">
         <v>2317.9</v>
       </c>
@@ -5919,9 +6381,15 @@
         <v>38</v>
       </c>
       <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
-      <c r="Q104"/>
+      <c r="O104" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="P104" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>65.13</v>
+      </c>
       <c r="R104" t="n">
         <v>2288.6</v>
       </c>
@@ -6019,9 +6487,15 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="O106" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P106" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>64.8</v>
+      </c>
       <c r="R106" t="n">
         <v>2930.8</v>
       </c>
@@ -6074,9 +6548,15 @@
       <c r="N107" t="n">
         <v>1.5</v>
       </c>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
+      <c r="O107" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="P107" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>65.47</v>
+      </c>
       <c r="R107" t="n">
         <v>2556.9</v>
       </c>
@@ -6125,9 +6605,15 @@
         <v>44</v>
       </c>
       <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
+      <c r="O108" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P108" t="n">
+        <v>45.26</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>67.31</v>
+      </c>
       <c r="R108" t="n">
         <v>2576.5</v>
       </c>
@@ -6225,9 +6711,15 @@
       <c r="N110" t="n">
         <v>1</v>
       </c>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+      <c r="O110" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="P110" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>64.97</v>
+      </c>
       <c r="R110" t="n">
         <v>2783.1</v>
       </c>
@@ -6280,9 +6772,15 @@
       <c r="N111" t="n">
         <v>1</v>
       </c>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
+      <c r="O111" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="P111" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>64.65</v>
+      </c>
       <c r="R111" t="n">
         <v>3043.6</v>
       </c>
@@ -6331,9 +6829,15 @@
         <v>34</v>
       </c>
       <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
+      <c r="O112" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="P112" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>64.55</v>
+      </c>
       <c r="R112" t="n">
         <v>2910.1</v>
       </c>
@@ -6431,9 +6935,15 @@
       <c r="N114" t="n">
         <v>2</v>
       </c>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+      <c r="O114" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="P114" t="n">
+        <v>39.31</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>64.06</v>
+      </c>
       <c r="R114" t="n">
         <v>2352.9</v>
       </c>
@@ -6486,9 +6996,15 @@
       <c r="N115" t="n">
         <v>2</v>
       </c>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
+      <c r="O115" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="P115" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>65.15</v>
+      </c>
       <c r="R115" t="n">
         <v>2590.1</v>
       </c>
@@ -6537,9 +7053,15 @@
         <v>51</v>
       </c>
       <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
+      <c r="O116" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="P116" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>65.02</v>
+      </c>
       <c r="R116" t="n">
         <v>2558.2</v>
       </c>
@@ -6637,9 +7159,15 @@
       <c r="N118" t="n">
         <v>3</v>
       </c>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+      <c r="O118" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="P118" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>65</v>
+      </c>
       <c r="R118" t="n">
         <v>2546.6</v>
       </c>
@@ -6692,9 +7220,15 @@
       <c r="N119" t="n">
         <v>2</v>
       </c>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
+      <c r="O119" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="P119" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>64.03</v>
+      </c>
       <c r="R119" t="n">
         <v>2772.9</v>
       </c>
@@ -6743,9 +7277,15 @@
         <v>40</v>
       </c>
       <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
+      <c r="O120" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="P120" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>64.2</v>
+      </c>
       <c r="R120" t="n">
         <v>2648.7</v>
       </c>
@@ -6843,9 +7383,15 @@
       <c r="N122" t="n">
         <v>1</v>
       </c>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+      <c r="O122" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="P122" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>65.13</v>
+      </c>
       <c r="R122" t="n">
         <v>3058.4</v>
       </c>
@@ -6898,9 +7444,15 @@
       <c r="N123" t="n">
         <v>1.5</v>
       </c>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
+      <c r="O123" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="P123" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>65.22</v>
+      </c>
       <c r="R123" t="n">
         <v>3150.2</v>
       </c>
@@ -6949,9 +7501,15 @@
         <v>34</v>
       </c>
       <c r="N124"/>
-      <c r="O124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
+      <c r="O124" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="P124" t="n">
+        <v>42.13</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>65.16</v>
+      </c>
       <c r="R124" t="n">
         <v>2836.1</v>
       </c>
@@ -7049,9 +7607,15 @@
       <c r="N126" t="n">
         <v>2</v>
       </c>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
+      <c r="O126" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="P126" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>65.59</v>
+      </c>
       <c r="R126" t="n">
         <v>2795.8</v>
       </c>
@@ -7104,9 +7668,15 @@
       <c r="N127" t="n">
         <v>2</v>
       </c>
-      <c r="O127"/>
-      <c r="P127"/>
-      <c r="Q127"/>
+      <c r="O127" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="P127" t="n">
+        <v>42.69</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R127" t="n">
         <v>2597.1</v>
       </c>
@@ -7155,9 +7725,15 @@
         <v>40</v>
       </c>
       <c r="N128"/>
-      <c r="O128"/>
-      <c r="P128"/>
-      <c r="Q128"/>
+      <c r="O128" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="P128" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>66.08</v>
+      </c>
       <c r="R128" t="n">
         <v>2315.4</v>
       </c>
@@ -7255,9 +7831,15 @@
       <c r="N130" t="n">
         <v>2.5</v>
       </c>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
+      <c r="O130" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="P130" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>66.04</v>
+      </c>
       <c r="R130" t="n">
         <v>2746.3</v>
       </c>
@@ -7310,9 +7892,15 @@
       <c r="N131" t="n">
         <v>2</v>
       </c>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
+      <c r="O131" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="P131" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>66</v>
+      </c>
       <c r="R131" t="n">
         <v>2519.9</v>
       </c>
@@ -7361,9 +7949,15 @@
         <v>40</v>
       </c>
       <c r="N132"/>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
+      <c r="O132" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P132" t="n">
+        <v>44.15</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>66.2</v>
+      </c>
       <c r="R132" t="n">
         <v>2846.2</v>
       </c>
@@ -7461,9 +8055,15 @@
       <c r="N134" t="n">
         <v>1.5</v>
       </c>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="O134" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="P134" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>66.21</v>
+      </c>
       <c r="R134" t="n">
         <v>2711</v>
       </c>
@@ -7516,9 +8116,15 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
+      <c r="O135" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="P135" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>64.98</v>
+      </c>
       <c r="R135" t="n">
         <v>2678.5</v>
       </c>
@@ -7567,9 +8173,15 @@
         <v>38</v>
       </c>
       <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
+      <c r="O136" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="P136" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>65.79</v>
+      </c>
       <c r="R136" t="n">
         <v>2464.7</v>
       </c>
@@ -7667,9 +8279,15 @@
       <c r="N138" t="n">
         <v>1.5</v>
       </c>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
+      <c r="O138" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P138" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>63.87</v>
+      </c>
       <c r="R138" t="n">
         <v>2581.1</v>
       </c>
@@ -7722,9 +8340,15 @@
       <c r="N139" t="n">
         <v>2</v>
       </c>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
+      <c r="O139" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="P139" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>63.76</v>
+      </c>
       <c r="R139" t="n">
         <v>2641.4</v>
       </c>
@@ -7773,9 +8397,15 @@
         <v>44</v>
       </c>
       <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
+      <c r="O140" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="P140" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>64.65</v>
+      </c>
       <c r="R140" t="n">
         <v>2628.1</v>
       </c>
@@ -7873,9 +8503,15 @@
       <c r="N142" t="n">
         <v>1.5</v>
       </c>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
+      <c r="O142" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="P142" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>63.09</v>
+      </c>
       <c r="R142" t="n">
         <v>3067.6</v>
       </c>
@@ -7928,9 +8564,15 @@
       <c r="N143" t="n">
         <v>1.5</v>
       </c>
-      <c r="O143"/>
-      <c r="P143"/>
-      <c r="Q143"/>
+      <c r="O143" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="P143" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>63.67</v>
+      </c>
       <c r="R143" t="n">
         <v>2673.7</v>
       </c>
@@ -7979,9 +8621,15 @@
         <v>38</v>
       </c>
       <c r="N144"/>
-      <c r="O144"/>
-      <c r="P144"/>
-      <c r="Q144"/>
+      <c r="O144" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P144" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>64.09</v>
+      </c>
       <c r="R144" t="n">
         <v>2849.3</v>
       </c>
@@ -8079,9 +8727,15 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
+      <c r="O146" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="P146" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>64.54</v>
+      </c>
       <c r="R146" t="n">
         <v>2591.5</v>
       </c>
@@ -8134,9 +8788,15 @@
       <c r="N147" t="n">
         <v>1.5</v>
       </c>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
+      <c r="O147" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="P147" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>65.15</v>
+      </c>
       <c r="R147" t="n">
         <v>2590.6</v>
       </c>
@@ -8185,9 +8845,15 @@
         <v>41</v>
       </c>
       <c r="N148"/>
-      <c r="O148"/>
-      <c r="P148"/>
-      <c r="Q148"/>
+      <c r="O148" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="P148" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>65.21</v>
+      </c>
       <c r="R148" t="n">
         <v>2735.9</v>
       </c>
@@ -8285,9 +8951,15 @@
       <c r="N150" t="n">
         <v>1.5</v>
       </c>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="O150" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="P150" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>62.93</v>
+      </c>
       <c r="R150" t="n">
         <v>3259.5</v>
       </c>
@@ -8297,7 +8969,9 @@
       <c r="T150" t="n">
         <v>1.5</v>
       </c>
-      <c r="U150"/>
+      <c r="U150" t="n">
+        <v>54.1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -8338,9 +9012,15 @@
       <c r="N151" t="n">
         <v>1.5</v>
       </c>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
+      <c r="O151" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="P151" t="n">
+        <v>39.16</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>62.7</v>
+      </c>
       <c r="R151" t="n">
         <v>2948.9</v>
       </c>
@@ -8350,7 +9030,9 @@
       <c r="T151" t="n">
         <v>1.5</v>
       </c>
-      <c r="U151"/>
+      <c r="U151" t="n">
+        <v>53.7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -8387,9 +9069,15 @@
         <v>32</v>
       </c>
       <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
+      <c r="O152" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="P152" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>63.91</v>
+      </c>
       <c r="R152" t="n">
         <v>3142.7</v>
       </c>
@@ -8397,7 +9085,9 @@
         <v>16.2</v>
       </c>
       <c r="T152"/>
-      <c r="U152"/>
+      <c r="U152" t="n">
+        <v>54.4</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -8442,7 +9132,9 @@
         <v>16</v>
       </c>
       <c r="T153"/>
-      <c r="U153"/>
+      <c r="U153" t="n">
+        <v>53.9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -8483,9 +9175,15 @@
       <c r="N154" t="n">
         <v>2</v>
       </c>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
+      <c r="O154" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="P154" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>62.21</v>
+      </c>
       <c r="R154" t="n">
         <v>3080</v>
       </c>
@@ -8495,7 +9193,9 @@
       <c r="T154" t="n">
         <v>1</v>
       </c>
-      <c r="U154"/>
+      <c r="U154" t="n">
+        <v>56.1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -8536,9 +9236,15 @@
       <c r="N155" t="n">
         <v>1.5</v>
       </c>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
+      <c r="O155" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="P155" t="n">
+        <v>38.51</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>62.28</v>
+      </c>
       <c r="R155" t="n">
         <v>2879.6</v>
       </c>
@@ -8548,7 +9254,9 @@
       <c r="T155" t="n">
         <v>1</v>
       </c>
-      <c r="U155"/>
+      <c r="U155" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -8585,9 +9293,15 @@
         <v>39</v>
       </c>
       <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
+      <c r="O156" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="P156" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>62.89</v>
+      </c>
       <c r="R156" t="n">
         <v>2997</v>
       </c>
@@ -8595,7 +9309,9 @@
         <v>17.5</v>
       </c>
       <c r="T156"/>
-      <c r="U156"/>
+      <c r="U156" t="n">
+        <v>55.3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -8640,7 +9356,9 @@
         <v>17.4</v>
       </c>
       <c r="T157"/>
-      <c r="U157"/>
+      <c r="U157" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -8681,9 +9399,15 @@
       <c r="N158" t="n">
         <v>1</v>
       </c>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
+      <c r="O158" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="P158" t="n">
+        <v>39.23</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>62.66</v>
+      </c>
       <c r="R158" t="n">
         <v>3286</v>
       </c>
@@ -8736,9 +9460,15 @@
       <c r="N159" t="n">
         <v>1.5</v>
       </c>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
+      <c r="O159" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="P159" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>62.62</v>
+      </c>
       <c r="R159" t="n">
         <v>3397.1</v>
       </c>
@@ -8787,9 +9517,15 @@
         <v>31</v>
       </c>
       <c r="N160"/>
-      <c r="O160"/>
-      <c r="P160"/>
-      <c r="Q160"/>
+      <c r="O160" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="P160" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>63.2</v>
+      </c>
       <c r="R160" t="n">
         <v>3008.1</v>
       </c>
@@ -17622,48 +18358,40 @@
         <v>40</v>
       </c>
       <c r="F321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G321" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="H321"/>
       <c r="I321"/>
-      <c r="J321" t="n">
-        <v>17</v>
-      </c>
+      <c r="J321"/>
       <c r="K321" t="s">
         <v>69</v>
       </c>
       <c r="L321" t="s">
         <v>25</v>
       </c>
-      <c r="M321" t="n">
-        <v>28</v>
-      </c>
-      <c r="N321" t="n">
-        <v>1</v>
-      </c>
+      <c r="M321"/>
+      <c r="N321"/>
       <c r="O321" t="n">
-        <v>-19.5</v>
+        <v>22.94</v>
       </c>
       <c r="P321" t="n">
-        <v>62.3</v>
+        <v>40.38</v>
       </c>
       <c r="Q321" t="n">
-        <v>42.8</v>
+        <v>63.32</v>
       </c>
       <c r="R321" t="n">
-        <v>2147.6</v>
+        <v>2133.4</v>
       </c>
       <c r="S321" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="T321" t="n">
-        <v>1</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="T321"/>
       <c r="U321" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="322">
@@ -17683,10 +18411,10 @@
         <v>40</v>
       </c>
       <c r="F322" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G322" t="n">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H322"/>
       <c r="I322"/>
@@ -17699,68 +18427,15 @@
       </c>
       <c r="M322"/>
       <c r="N322"/>
-      <c r="O322" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="P322" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="Q322" t="n">
-        <v>63.32</v>
-      </c>
+      <c r="O322"/>
+      <c r="P322"/>
+      <c r="Q322"/>
       <c r="R322" t="n">
-        <v>2133.4</v>
-      </c>
-      <c r="S322" t="n">
-        <v>12.2</v>
-      </c>
+        <v>2229.1</v>
+      </c>
+      <c r="S322"/>
       <c r="T322"/>
       <c r="U322" t="n">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>21</v>
-      </c>
-      <c r="B323" t="s">
-        <v>68</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D323" t="s">
-        <v>67</v>
-      </c>
-      <c r="E323" t="n">
-        <v>40</v>
-      </c>
-      <c r="F323" t="n">
-        <v>4</v>
-      </c>
-      <c r="G323" t="n">
-        <v>147</v>
-      </c>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
-      <c r="K323" t="s">
-        <v>69</v>
-      </c>
-      <c r="L323" t="s">
-        <v>25</v>
-      </c>
-      <c r="M323"/>
-      <c r="N323"/>
-      <c r="O323"/>
-      <c r="P323"/>
-      <c r="Q323"/>
-      <c r="R323" t="n">
-        <v>2229.1</v>
-      </c>
-      <c r="S323"/>
-      <c r="T323"/>
-      <c r="U323" t="n">
         <v>55.3</v>
       </c>
     </row>

--- a/exports/yield_files/LU 6 Late-21.xlsx
+++ b/exports/yield_files/LU 6 Late-21.xlsx
@@ -17417,48 +17417,40 @@
         <v>36</v>
       </c>
       <c r="F304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G304" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H304"/>
       <c r="I304"/>
-      <c r="J304" t="n">
-        <v>25</v>
-      </c>
+      <c r="J304"/>
       <c r="K304" t="s">
         <v>70</v>
       </c>
       <c r="L304" t="s">
         <v>28</v>
       </c>
-      <c r="M304" t="n">
-        <v>36</v>
-      </c>
-      <c r="N304" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M304"/>
+      <c r="N304"/>
       <c r="O304" t="n">
-        <v>23.14</v>
+        <v>23.42</v>
       </c>
       <c r="P304" t="n">
-        <v>41.69</v>
+        <v>39.8</v>
       </c>
       <c r="Q304" t="n">
-        <v>64.83</v>
+        <v>63.22</v>
       </c>
       <c r="R304" t="n">
-        <v>1783.2</v>
+        <v>1969.8</v>
       </c>
       <c r="S304" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="T304" t="n">
-        <v>1.5</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="T304"/>
       <c r="U304" t="n">
-        <v>57.1</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="305">
@@ -17478,10 +17470,10 @@
         <v>36</v>
       </c>
       <c r="F305" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G305" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="H305"/>
       <c r="I305"/>
@@ -17494,24 +17486,16 @@
       </c>
       <c r="M305"/>
       <c r="N305"/>
-      <c r="O305" t="n">
-        <v>23.42</v>
-      </c>
-      <c r="P305" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="Q305" t="n">
-        <v>63.22</v>
-      </c>
+      <c r="O305"/>
+      <c r="P305"/>
+      <c r="Q305"/>
       <c r="R305" t="n">
-        <v>1969.8</v>
-      </c>
-      <c r="S305" t="n">
-        <v>13.4</v>
-      </c>
+        <v>2251.6</v>
+      </c>
+      <c r="S305"/>
       <c r="T305"/>
       <c r="U305" t="n">
-        <v>57.4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="306">
@@ -17525,38 +17509,54 @@
         <v>2021</v>
       </c>
       <c r="D306" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E306" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F306" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G306" t="n">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="H306"/>
       <c r="I306"/>
-      <c r="J306"/>
+      <c r="J306" t="n">
+        <v>28</v>
+      </c>
       <c r="K306" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L306" t="s">
-        <v>28</v>
-      </c>
-      <c r="M306"/>
-      <c r="N306"/>
-      <c r="O306"/>
-      <c r="P306"/>
-      <c r="Q306"/>
+        <v>25</v>
+      </c>
+      <c r="M306" t="n">
+        <v>40</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O306" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="P306" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>65.79</v>
+      </c>
       <c r="R306" t="n">
-        <v>2251.6</v>
-      </c>
-      <c r="S306"/>
-      <c r="T306"/>
+        <v>1884.1</v>
+      </c>
+      <c r="S306" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U306" t="n">
-        <v>57</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="307">
@@ -17576,15 +17576,15 @@
         <v>37</v>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G307" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="H307"/>
       <c r="I307"/>
       <c r="J307" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K307" t="s">
         <v>69</v>
@@ -17593,28 +17593,28 @@
         <v>25</v>
       </c>
       <c r="M307" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N307" t="n">
         <v>1.5</v>
       </c>
       <c r="O307" t="n">
-        <v>22.59</v>
+        <v>21.95</v>
       </c>
       <c r="P307" t="n">
-        <v>43.2</v>
+        <v>43.31</v>
       </c>
       <c r="Q307" t="n">
-        <v>65.79</v>
+        <v>65.26</v>
       </c>
       <c r="R307" t="n">
-        <v>1884.1</v>
+        <v>1875.8</v>
       </c>
       <c r="S307" t="n">
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="T307" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="U307" t="n">
         <v>57.8</v>
@@ -17637,48 +17637,40 @@
         <v>37</v>
       </c>
       <c r="F308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G308" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H308"/>
       <c r="I308"/>
-      <c r="J308" t="n">
-        <v>25</v>
-      </c>
+      <c r="J308"/>
       <c r="K308" t="s">
         <v>69</v>
       </c>
       <c r="L308" t="s">
         <v>25</v>
       </c>
-      <c r="M308" t="n">
-        <v>42</v>
-      </c>
-      <c r="N308" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="M308"/>
+      <c r="N308"/>
       <c r="O308" t="n">
-        <v>21.95</v>
+        <v>22.32</v>
       </c>
       <c r="P308" t="n">
-        <v>43.31</v>
+        <v>42.13</v>
       </c>
       <c r="Q308" t="n">
-        <v>65.26</v>
+        <v>64.45</v>
       </c>
       <c r="R308" t="n">
-        <v>1875.8</v>
+        <v>1487.4</v>
       </c>
       <c r="S308" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="T308" t="n">
-        <v>1</v>
-      </c>
+        <v>12.8</v>
+      </c>
+      <c r="T308"/>
       <c r="U308" t="n">
-        <v>57.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="309">
@@ -17698,10 +17690,10 @@
         <v>37</v>
       </c>
       <c r="F309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G309" t="n">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H309"/>
       <c r="I309"/>
@@ -17714,24 +17706,16 @@
       </c>
       <c r="M309"/>
       <c r="N309"/>
-      <c r="O309" t="n">
-        <v>22.32</v>
-      </c>
-      <c r="P309" t="n">
-        <v>42.13</v>
-      </c>
-      <c r="Q309" t="n">
-        <v>64.45</v>
-      </c>
+      <c r="O309"/>
+      <c r="P309"/>
+      <c r="Q309"/>
       <c r="R309" t="n">
-        <v>1487.4</v>
-      </c>
-      <c r="S309" t="n">
-        <v>12.8</v>
-      </c>
+        <v>756.6</v>
+      </c>
+      <c r="S309"/>
       <c r="T309"/>
       <c r="U309" t="n">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="310">
@@ -17745,38 +17729,54 @@
         <v>2021</v>
       </c>
       <c r="D310" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E310" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G310" t="n">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="H310"/>
       <c r="I310"/>
-      <c r="J310"/>
+      <c r="J310" t="n">
+        <v>19</v>
+      </c>
       <c r="K310" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L310" t="s">
         <v>25</v>
       </c>
-      <c r="M310"/>
-      <c r="N310"/>
-      <c r="O310"/>
-      <c r="P310"/>
-      <c r="Q310"/>
+      <c r="M310" t="n">
+        <v>25</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="P310" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>65.57</v>
+      </c>
       <c r="R310" t="n">
-        <v>756.6</v>
-      </c>
-      <c r="S310"/>
-      <c r="T310"/>
+        <v>1906.5</v>
+      </c>
+      <c r="S310" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1</v>
+      </c>
       <c r="U310" t="n">
-        <v>57.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="311">
@@ -17796,15 +17796,15 @@
         <v>38</v>
       </c>
       <c r="F311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G311" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H311"/>
       <c r="I311"/>
       <c r="J311" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K311" t="s">
         <v>70</v>
@@ -17813,31 +17813,31 @@
         <v>25</v>
       </c>
       <c r="M311" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N311" t="n">
         <v>1</v>
       </c>
       <c r="O311" t="n">
-        <v>22.16</v>
+        <v>22.82</v>
       </c>
       <c r="P311" t="n">
-        <v>43.41</v>
+        <v>42.27</v>
       </c>
       <c r="Q311" t="n">
-        <v>65.57</v>
+        <v>65.09</v>
       </c>
       <c r="R311" t="n">
-        <v>1906.5</v>
+        <v>2100.6</v>
       </c>
       <c r="S311" t="n">
-        <v>15.8</v>
+        <v>14.3</v>
       </c>
       <c r="T311" t="n">
         <v>1</v>
       </c>
       <c r="U311" t="n">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="312">
@@ -17857,48 +17857,40 @@
         <v>38</v>
       </c>
       <c r="F312" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G312" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H312"/>
       <c r="I312"/>
-      <c r="J312" t="n">
-        <v>18</v>
-      </c>
+      <c r="J312"/>
       <c r="K312" t="s">
         <v>70</v>
       </c>
       <c r="L312" t="s">
         <v>25</v>
       </c>
-      <c r="M312" t="n">
-        <v>28</v>
-      </c>
-      <c r="N312" t="n">
-        <v>1</v>
-      </c>
+      <c r="M312"/>
+      <c r="N312"/>
       <c r="O312" t="n">
-        <v>22.82</v>
+        <v>22.48</v>
       </c>
       <c r="P312" t="n">
-        <v>42.27</v>
+        <v>41.99</v>
       </c>
       <c r="Q312" t="n">
-        <v>65.09</v>
+        <v>64.47</v>
       </c>
       <c r="R312" t="n">
-        <v>2100.6</v>
+        <v>2241.9</v>
       </c>
       <c r="S312" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="T312" t="n">
-        <v>1</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="T312"/>
       <c r="U312" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="313">
@@ -17918,10 +17910,10 @@
         <v>38</v>
       </c>
       <c r="F313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G313" t="n">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="H313"/>
       <c r="I313"/>
@@ -17934,24 +17926,16 @@
       </c>
       <c r="M313"/>
       <c r="N313"/>
-      <c r="O313" t="n">
-        <v>22.48</v>
-      </c>
-      <c r="P313" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="Q313" t="n">
-        <v>64.47</v>
-      </c>
+      <c r="O313"/>
+      <c r="P313"/>
+      <c r="Q313"/>
       <c r="R313" t="n">
-        <v>2241.9</v>
-      </c>
-      <c r="S313" t="n">
-        <v>14.7</v>
-      </c>
+        <v>1685.4</v>
+      </c>
+      <c r="S313"/>
       <c r="T313"/>
       <c r="U313" t="n">
-        <v>56</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="314">
@@ -17965,38 +17949,54 @@
         <v>2021</v>
       </c>
       <c r="D314" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E314" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G314" t="n">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="H314"/>
       <c r="I314"/>
-      <c r="J314"/>
+      <c r="J314" t="n">
+        <v>18</v>
+      </c>
       <c r="K314" t="s">
         <v>70</v>
       </c>
       <c r="L314" t="s">
         <v>25</v>
       </c>
-      <c r="M314"/>
-      <c r="N314"/>
-      <c r="O314"/>
-      <c r="P314"/>
-      <c r="Q314"/>
+      <c r="M314" t="n">
+        <v>34</v>
+      </c>
+      <c r="N314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O314" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="P314" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>64.14</v>
+      </c>
       <c r="R314" t="n">
-        <v>1685.4</v>
-      </c>
-      <c r="S314"/>
-      <c r="T314"/>
+        <v>1888.9</v>
+      </c>
+      <c r="S314" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1</v>
+      </c>
       <c r="U314" t="n">
-        <v>56.8</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="315">
@@ -18016,15 +18016,15 @@
         <v>39</v>
       </c>
       <c r="F315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G315" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H315"/>
       <c r="I315"/>
       <c r="J315" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K315" t="s">
         <v>70</v>
@@ -18036,28 +18036,28 @@
         <v>34</v>
       </c>
       <c r="N315" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O315" t="n">
-        <v>23.73</v>
+        <v>23.67</v>
       </c>
       <c r="P315" t="n">
-        <v>40.41</v>
+        <v>41.6</v>
       </c>
       <c r="Q315" t="n">
-        <v>64.14</v>
+        <v>65.27</v>
       </c>
       <c r="R315" t="n">
-        <v>1888.9</v>
+        <v>1771.1</v>
       </c>
       <c r="S315" t="n">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="T315" t="n">
         <v>1</v>
       </c>
       <c r="U315" t="n">
-        <v>57.3</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="316">
@@ -18077,48 +18077,40 @@
         <v>39</v>
       </c>
       <c r="F316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G316" t="n">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="H316"/>
       <c r="I316"/>
-      <c r="J316" t="n">
-        <v>19</v>
-      </c>
+      <c r="J316"/>
       <c r="K316" t="s">
         <v>70</v>
       </c>
       <c r="L316" t="s">
         <v>25</v>
       </c>
-      <c r="M316" t="n">
-        <v>34</v>
-      </c>
-      <c r="N316" t="n">
-        <v>1</v>
-      </c>
+      <c r="M316"/>
+      <c r="N316"/>
       <c r="O316" t="n">
-        <v>23.67</v>
+        <v>22.53</v>
       </c>
       <c r="P316" t="n">
-        <v>41.6</v>
+        <v>41.31</v>
       </c>
       <c r="Q316" t="n">
-        <v>65.27</v>
+        <v>63.84</v>
       </c>
       <c r="R316" t="n">
-        <v>1771.1</v>
+        <v>2184</v>
       </c>
       <c r="S316" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="T316" t="n">
-        <v>1</v>
-      </c>
+        <v>17.9</v>
+      </c>
+      <c r="T316"/>
       <c r="U316" t="n">
-        <v>57.2</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="317">
@@ -18138,10 +18130,10 @@
         <v>39</v>
       </c>
       <c r="F317" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G317" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H317"/>
       <c r="I317"/>
@@ -18154,24 +18146,16 @@
       </c>
       <c r="M317"/>
       <c r="N317"/>
-      <c r="O317" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="P317" t="n">
-        <v>41.31</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>63.84</v>
-      </c>
+      <c r="O317"/>
+      <c r="P317"/>
+      <c r="Q317"/>
       <c r="R317" t="n">
-        <v>2184</v>
-      </c>
-      <c r="S317" t="n">
-        <v>17.9</v>
-      </c>
+        <v>2070.5</v>
+      </c>
+      <c r="S317"/>
       <c r="T317"/>
       <c r="U317" t="n">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="318">
@@ -18185,38 +18169,54 @@
         <v>2021</v>
       </c>
       <c r="D318" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E318" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F318" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G318" t="n">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="H318"/>
       <c r="I318"/>
-      <c r="J318"/>
+      <c r="J318" t="n">
+        <v>20</v>
+      </c>
       <c r="K318" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L318" t="s">
         <v>25</v>
       </c>
-      <c r="M318"/>
-      <c r="N318"/>
-      <c r="O318"/>
-      <c r="P318"/>
-      <c r="Q318"/>
+      <c r="M318" t="n">
+        <v>27</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+      <c r="O318" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="P318" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>63.77</v>
+      </c>
       <c r="R318" t="n">
-        <v>2070.5</v>
-      </c>
-      <c r="S318"/>
-      <c r="T318"/>
+        <v>1617.4</v>
+      </c>
+      <c r="S318" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1</v>
+      </c>
       <c r="U318" t="n">
-        <v>56.7</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="319">
@@ -18236,15 +18236,15 @@
         <v>40</v>
       </c>
       <c r="F319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G319" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H319"/>
       <c r="I319"/>
       <c r="J319" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K319" t="s">
         <v>69</v>
@@ -18253,31 +18253,31 @@
         <v>25</v>
       </c>
       <c r="M319" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N319" t="n">
         <v>1</v>
       </c>
       <c r="O319" t="n">
-        <v>23.27</v>
+        <v>23.36</v>
       </c>
       <c r="P319" t="n">
-        <v>40.5</v>
+        <v>40.53</v>
       </c>
       <c r="Q319" t="n">
-        <v>63.77</v>
+        <v>63.89</v>
       </c>
       <c r="R319" t="n">
-        <v>1617.4</v>
+        <v>2147.6</v>
       </c>
       <c r="S319" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="T319" t="n">
         <v>1</v>
       </c>
       <c r="U319" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="320">
@@ -18297,48 +18297,40 @@
         <v>40</v>
       </c>
       <c r="F320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G320" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="H320"/>
       <c r="I320"/>
-      <c r="J320" t="n">
-        <v>17</v>
-      </c>
+      <c r="J320"/>
       <c r="K320" t="s">
         <v>69</v>
       </c>
       <c r="L320" t="s">
         <v>25</v>
       </c>
-      <c r="M320" t="n">
-        <v>28</v>
-      </c>
-      <c r="N320" t="n">
-        <v>1</v>
-      </c>
+      <c r="M320"/>
+      <c r="N320"/>
       <c r="O320" t="n">
-        <v>23.36</v>
+        <v>22.94</v>
       </c>
       <c r="P320" t="n">
-        <v>40.53</v>
+        <v>40.38</v>
       </c>
       <c r="Q320" t="n">
-        <v>63.89</v>
+        <v>63.32</v>
       </c>
       <c r="R320" t="n">
-        <v>2147.6</v>
+        <v>2133.4</v>
       </c>
       <c r="S320" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="T320" t="n">
-        <v>1</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="T320"/>
       <c r="U320" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="321">
@@ -18358,10 +18350,10 @@
         <v>40</v>
       </c>
       <c r="F321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G321" t="n">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H321"/>
       <c r="I321"/>
@@ -18374,68 +18366,15 @@
       </c>
       <c r="M321"/>
       <c r="N321"/>
-      <c r="O321" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="P321" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="Q321" t="n">
-        <v>63.32</v>
-      </c>
+      <c r="O321"/>
+      <c r="P321"/>
+      <c r="Q321"/>
       <c r="R321" t="n">
-        <v>2133.4</v>
-      </c>
-      <c r="S321" t="n">
-        <v>12.2</v>
-      </c>
+        <v>2229.1</v>
+      </c>
+      <c r="S321"/>
       <c r="T321"/>
       <c r="U321" t="n">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>21</v>
-      </c>
-      <c r="B322" t="s">
-        <v>68</v>
-      </c>
-      <c r="C322" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D322" t="s">
-        <v>67</v>
-      </c>
-      <c r="E322" t="n">
-        <v>40</v>
-      </c>
-      <c r="F322" t="n">
-        <v>4</v>
-      </c>
-      <c r="G322" t="n">
-        <v>147</v>
-      </c>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322" t="s">
-        <v>69</v>
-      </c>
-      <c r="L322" t="s">
-        <v>25</v>
-      </c>
-      <c r="M322"/>
-      <c r="N322"/>
-      <c r="O322"/>
-      <c r="P322"/>
-      <c r="Q322"/>
-      <c r="R322" t="n">
-        <v>2229.1</v>
-      </c>
-      <c r="S322"/>
-      <c r="T322"/>
-      <c r="U322" t="n">
         <v>55.3</v>
       </c>
     </row>
